--- a/dados/analises/2024/excel/04-ranking-categoria-mencao-rec.xlsx
+++ b/dados/analises/2024/excel/04-ranking-categoria-mencao-rec.xlsx
@@ -1178,7 +1178,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>914.181</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>914.181</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>914.181</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>914.181</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>38.9</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>38.9</v>

--- a/dados/analises/2024/excel/04-ranking-categoria-mencao-rec.xlsx
+++ b/dados/analises/2024/excel/04-ranking-categoria-mencao-rec.xlsx
@@ -1082,7 +1082,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3693.439</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>3693.439</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>3693.439</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>3693.439</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>3693.439</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>3693.439</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>3693.439</v>

--- a/dados/analises/2024/excel/04-ranking-categoria-mencao-rec.xlsx
+++ b/dados/analises/2024/excel/04-ranking-categoria-mencao-rec.xlsx
@@ -1074,7 +1074,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>3693.439</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3693.439</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>3693.439</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>3693.439</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>3693.439</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>3693.439</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>3693.439</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>3693.439</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>914.181</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>914.181</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>914.181</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>38.9</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>38.9</v>

--- a/dados/analises/2024/excel/04-ranking-categoria-mencao-rec.xlsx
+++ b/dados/analises/2024/excel/04-ranking-categoria-mencao-rec.xlsx
@@ -1066,7 +1066,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>3693.439</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3693.439</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>3693.439</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>3693.439</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>3693.439</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>3693.439</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>3693.439</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>3693.439</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>3693.439</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>914.181</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>914.181</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>50</v>

--- a/dados/analises/2024/excel/04-ranking-categoria-mencao-rec.xlsx
+++ b/dados/analises/2024/excel/04-ranking-categoria-mencao-rec.xlsx
@@ -1066,7 +1066,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>3693.439</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>3693.439</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>3693.439</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3693.439</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>3693.439</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>3693.439</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>3693.439</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>914.181</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>914.181</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>914.181</v>

--- a/dados/analises/2024/excel/04-ranking-categoria-mencao-rec.xlsx
+++ b/dados/analises/2024/excel/04-ranking-categoria-mencao-rec.xlsx
@@ -1066,7 +1066,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>3693.439</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3693.439</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>3693.439</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3693.439</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>3693.439</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>3693.439</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>3693.439</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>3693.439</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>3693.439</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>914.181</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>914.181</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>914.181</v>
